--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\heeproject\skycom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\heeproject\test001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD75FD-EDC0-45B6-8D3D-7C2F7B8D9F8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1927B8FE-64E2-4BF3-B008-B716F9BF7B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="735" windowWidth="19800" windowHeight="11385" xr2:uid="{A2B1D8C0-B74D-44AB-8AF5-FD2CD7358F85}"/>
   </bookViews>
@@ -487,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C19D7CA-4F09-4A5B-8D0F-7F624C866A12}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
